--- a/plan/test/helper/単体テスト仕様書-EmployeeConverter.xlsx
+++ b/plan/test/helper/単体テスト仕様書-EmployeeConverter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1699AF78-1590-4084-BE52-D58A21DE57C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92977608-9AD8-4C27-BE2D-F9BE409EC989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeHelper" sheetId="166" r:id="rId1"/>
@@ -195,12 +195,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>helper/EmployeeConvereter.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>convertFormEmpAccountToEmpAccount
-(formEmpAccount:FormEmployeeRegister):EmpAccount</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>helper/EmployeeConvereter.java</t>
+(employeeForm:EmployeeForm):EmpAccount</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -412,44 +412,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -804,7 +804,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:M2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -821,25 +821,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,23 +854,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -908,20 +908,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="24" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -931,25 +931,25 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="82.5" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="21" t="s">
         <v>18</v>
       </c>
@@ -960,17 +960,17 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="82.5" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="21"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -979,17 +979,17 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="21"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -998,39 +998,30 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" ht="42" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C7:G7"/>
@@ -1042,6 +1033,15 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/helper/単体テスト仕様書-EmployeeConverter.xlsx
+++ b/plan/test/helper/単体テスト仕様書-EmployeeConverter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92977608-9AD8-4C27-BE2D-F9BE409EC989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981D41BB-397B-43D9-92D1-C8DAD4EEF520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>作成者</t>
   </si>
@@ -140,10 +140,6 @@
     <rPh sb="0" eb="2">
       <t>フルイチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FS</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -201,6 +197,24 @@
   <si>
     <t>convertFormEmpAccountToEmpAccount
 (employeeForm:EmployeeForm):EmpAccount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川佳苗</t>
+    <rPh sb="0" eb="4">
+      <t>タテカワカナエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -365,7 +379,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,19 +426,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -436,19 +450,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -804,42 +821,43 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P4" sqref="P4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.08984375" style="10" customWidth="1"/>
     <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.36328125" style="10" customWidth="1"/>
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="8.36328125" style="4" customWidth="1"/>
     <col min="14" max="15" width="9.6328125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="12.36328125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.7265625" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,27 +868,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -880,7 +898,9 @@
       <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="11.25" customHeight="1">
       <c r="A3" s="7"/>
@@ -908,20 +928,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -931,46 +951,52 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="82.5" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="29">
+        <v>45502</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="82.5" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="21"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -979,17 +1005,17 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="60" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="21"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -998,30 +1024,39 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="42" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C7:G7"/>
@@ -1033,15 +1068,6 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
